--- a/SampleDataandResults/Case Study II/Case Study II - Search Parameters.xlsx
+++ b/SampleDataandResults/Case Study II/Case Study II - Search Parameters.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\02_PERCEPTRON\01_Manuscripts\01_Nucleic Acids Research\03_First Submission\04_Supplementary Data\Case study 2_Resultstobeupdated\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE18E1BD-613F-4D8F-B8CF-C2062D2B8CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Search Parameters with PST" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <r>
       <rPr>
@@ -97,9 +91,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Filter Protein Database on Molecular Weight</t>
-  </si>
-  <si>
     <t>Tool-Specific Parameters</t>
   </si>
   <si>
@@ -151,8 +142,80 @@
     <t>2 to 6</t>
   </si>
   <si>
+    <t xml:space="preserve">Case Study II - Search Parameters </t>
+  </si>
+  <si>
+    <t>Fragmentation Type</t>
+  </si>
+  <si>
+    <t>ETD/CID</t>
+  </si>
+  <si>
+    <t>Filter Protein Database on Molecular Weight (MS1)</t>
+  </si>
+  <si>
+    <t>z',z''/ b',b*,y',y*</t>
+  </si>
+  <si>
+    <t>Special Ions</t>
+  </si>
+  <si>
     <r>
-      <t>In silico, w</t>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>In silico;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> w</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0, w</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0, w</t>
     </r>
     <r>
       <rPr>
@@ -171,18 +234,15 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>=1</t>
+      <t>=100</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Case Study II - Search Parameters </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +311,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -278,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -315,21 +382,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -424,10 +476,62 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="1" tint="0.249977111117893"/>
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -436,30 +540,32 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,64 +577,77 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -591,7 +710,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -643,7 +762,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -837,15 +956,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -856,194 +975,218 @@
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="2.7109375" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" hidden="1"/>
+    <col min="6" max="8" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="15" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="11" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="2:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="2:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="17"/>
+      <c r="C7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+      <c r="C10" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="2:11" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="10" t="s">
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="30"/>
+      <c r="C16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="30"/>
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="30"/>
+      <c r="C18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="30"/>
+      <c r="C19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="53.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="30"/>
+      <c r="C20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
-      <c r="C13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" s="11" customFormat="1" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
-      <c r="C18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="26"/>
-      <c r="C19" s="4" t="s">
+      <c r="D20" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="15" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="31"/>
+      <c r="C21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+    <row r="22" spans="2:4" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:4" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:4" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B11:B21"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
